--- a/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Esophageal adenocarcinoma.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/diff_gen/CREST syndrome with Type 2 Achalasia_vs_Esophageal adenocarcinoma.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Presence of skin changes such as sclerodactyly or telangiectasia</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>These findings are characteristic of CREST syndrome and are not typically seen in esophageal adenocarcinoma.</t>
+          <t>Raynaud's phenomenon is a common feature of CREST syndrome and is not associated with esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unintentional weight loss</t>
+          <t>Progressive dysphagia for solids</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Weight loss is a common symptom in esophageal adenocarcinoma due to difficulty swallowing and decreased appetite.</t>
+          <t>Progressive dysphagia for solids is a classic symptom of esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and is not a feature of esophageal adenocarcinoma.</t>
+          <t>Telangiectasia is a hallmark of CREST syndrome and is not typically seen in esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hematemesis or melena</t>
+          <t>Unintentional weight loss</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>These symptoms indicate gastrointestinal bleeding, which is more commonly associated with esophageal adenocarcinoma.</t>
+          <t>Significant weight loss is more commonly associated with esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia with a gradual onset over months</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gradual dysphagia is more indicative of achalasia, which is associated with CREST syndrome, compared to the rapid onset often seen in esophageal adenocarcinoma.</t>
+          <t>Sclerodactyly is specific to CREST syndrome and not present in esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Progressive dysphagia with solid foods</t>
+          <t>Odynophagia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Progressive dysphagia that worsens quickly is more indicative of esophageal adenocarcinoma than achalasia.</t>
+          <t>Painful swallowing (odynophagia) is more indicative of esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gastroesophageal reflux symptoms</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Reflux symptoms can be more prevalent in patients with achalasia, which is part of CREST syndrome, than in those with esophageal adenocarcinoma.</t>
+          <t>Calcinosis is a feature of CREST syndrome and not associated with esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chest pain or discomfort</t>
+          <t>History of Barrett's esophagus</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chest pain can be a symptom of esophageal adenocarcinoma, particularly if there is obstruction or invasion of surrounding tissues.</t>
+          <t>Barrett's esophagus is a known precursor to esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of connective tissue disease</t>
+          <t>Long-standing dysphagia with regurgitation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A history of connective tissue disease supports the diagnosis of CREST syndrome, which is a form of systemic sclerosis.</t>
+          <t>Chronic dysphagia with regurgitation is more indicative of achalasia, especially in the context of CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of smoking or heavy alcohol use</t>
+          <t>Chest pain</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>These risk factors are strongly associated with esophageal adenocarcinoma and less so with CREST syndrome.</t>
+          <t>Chest pain is more commonly associated with esophageal adenocarcinoma than with CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of sclerodactyly</t>
+          <t>History of scleroderma</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark feature of CREST syndrome, which is not present in esophageal adenocarcinoma.</t>
+          <t>Scleroderma is a key component of CREST syndrome, which is associated with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of weight loss</t>
+          <t>History of Barrett's esophagus</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Significant weight loss is a common symptom of esophageal adenocarcinoma and less common in CREST syndrome.</t>
+          <t>Barrett's esophagus is a known precursor to esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and is not a feature of esophageal adenocarcinoma.</t>
+          <t>Raynaud's phenomenon is commonly associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>History of dysphagia (difficulty swallowing)</t>
+          <t>Chronic gastroesophageal reflux disease (GERD)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>While dysphagia can occur in both conditions, it is more pronounced and alarming in esophageal adenocarcinoma.</t>
+          <t>Chronic GERD is a risk factor for developing esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of pulmonary hypertension</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is a common complication of CREST syndrome, whereas it is not typically associated with esophageal adenocarcinoma.</t>
+          <t>Telangiectasia is a characteristic feature of CREST syndrome.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of chronic cough</t>
+          <t>History of smoking</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chronic cough can be a symptom of esophageal adenocarcinoma due to tumor irritation, which is not typical in CREST syndrome.</t>
+          <t>Smoking is a significant risk factor for esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of gastrointestinal reflux disease (GERD)</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GERD can be a symptom of achalasia, which is associated with CREST syndrome, but is less specific for esophageal adenocarcinoma.</t>
+          <t>Calcinosis is part of the CREST syndrome spectrum.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of anemia</t>
+          <t>Obesity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Anemia can be a result of chronic blood loss from esophageal adenocarcinoma, whereas it is less common in CREST syndrome.</t>
+          <t>Obesity is a risk factor for esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of esophageal dilation procedures</t>
+          <t>History of esophageal motility disorder</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patients with Type 2 Achalasia often undergo esophageal dilation, which is not a treatment for esophageal adenocarcinoma.</t>
+          <t>Type 2 Achalasia is a specific esophageal motility disorder associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>History of prior malignancies</t>
+          <t>History of alcohol use</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A history of other malignancies may increase the suspicion for esophageal adenocarcinoma, which is not a feature of CREST syndrome.</t>
+          <t>Alcohol use is associated with an increased risk of esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CREST syndrome is associated with autoimmune conditions, which may run in families.</t>
+          <t>Autoimmune diseases, including CREST syndrome, often have a genetic component and may run in families.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -786,12 +786,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of sclerodactyly or skin changes</t>
+          <t>History of Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Skin changes are a hallmark of CREST syndrome, indicating a higher likelihood of this diagnosis.</t>
+          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and may be reported in family history.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -801,63 +801,63 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A genetic predisposition to esophageal cancer increases the likelihood of adenocarcinoma.</t>
+          <t>A family history of esophageal cancer increases the risk of esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Occupational exposure to silica or other environmental toxins</t>
+          <t>Family history of scleroderma</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certain occupations may increase the risk of autoimmune diseases like CREST syndrome.</t>
+          <t>Scleroderma is a component of CREST syndrome and may be present in family history.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chronic gastroesophageal reflux disease (GERD)</t>
+          <t>History of alcohol use</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GERD is a known risk factor for the development of esophageal adenocarcinoma.</t>
+          <t>Alcohol use is a known risk factor for esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Participation in activities that increase risk of esophageal motility disorders</t>
+          <t>Family history of connective tissue diseases</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Activities that lead to chronic esophageal irritation may be more common in CREST syndrome patients.</t>
+          <t>Connective tissue diseases are related to CREST syndrome and may be noted in family history.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Obesity or high body mass index (BMI)</t>
+          <t>Obesity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Obesity is associated with an increased risk of esophageal adenocarcinoma.</t>
+          <t>Obesity is a risk factor for esophageal adenocarcinoma due to its association with gastroesophageal reflux disease (GERD).</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of other connective tissue diseases in family</t>
+          <t>Non-smoking status</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A family history of connective tissue diseases supports the likelihood of CREST syndrome.</t>
+          <t>Non-smoking status is less associated with esophageal adenocarcinoma, which is more common in smokers.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Barrett's esophagus is a precancerous condition that can lead to esophageal adenocarcinoma.</t>
+          <t>Barrett's esophagus is a precursor to esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
@@ -915,12 +915,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Skin changes (sclerodactyly)</t>
+          <t>Sclerodactyly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sclerodactyly is a hallmark of CREST syndrome and is not present in esophageal adenocarcinoma.</t>
+          <t>Sclerodactyly is a hallmark of CREST syndrome, indicating skin thickening and tightening, which is not seen in esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -930,19 +930,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Significant weight loss is more common in esophageal adenocarcinoma due to dysphagia and decreased intake.</t>
+          <t>Significant weight loss is more commonly associated with esophageal adenocarcinoma due to cancer-related cachexia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is commonly associated with CREST syndrome and is not a feature of esophageal adenocarcinoma.</t>
+          <t>Telangiectasia, or small dilated blood vessels, is a common feature of CREST syndrome and not associated with esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -952,73 +952,73 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lymphadenopathy may indicate metastatic disease in esophageal adenocarcinoma, which is not a feature of CREST syndrome.</t>
+          <t>Palpable lymphadenopathy, especially supraclavicular nodes, suggests metastatic spread typical of esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dysphagia (difficulty swallowing)</t>
+          <t>Calcinosis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dysphagia in CREST syndrome is due to esophageal motility issues, while in adenocarcinoma it is often due to obstruction.</t>
+          <t>Calcinosis, or calcium deposits in the skin, is specific to CREST syndrome and not found in esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Anemia</t>
+          <t>Dysphagia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Anemia can occur due to chronic disease or blood loss in esophageal adenocarcinoma, while it is less common in CREST syndrome.</t>
+          <t>Progressive dysphagia is more indicative of esophageal adenocarcinoma due to tumor growth obstructing the esophagus.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Telangiectasia</t>
+          <t>Raynaud's phenomenon</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Telangiectasia is a common finding in CREST syndrome and is not typically seen in esophageal adenocarcinoma.</t>
+          <t>Raynaud's phenomenon, characterized by color changes in the fingers, is typical in CREST syndrome and not in esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cachexia</t>
+          <t>Anemia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cachexia is often seen in advanced esophageal adenocarcinoma due to metabolic changes, unlike in CREST syndrome.</t>
+          <t>Anemia can result from chronic blood loss in esophageal adenocarcinoma, not typically seen in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hypomotility on esophageal manometry</t>
+          <t>Digital ulcers</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Esophageal manometry in CREST syndrome shows hypomotility, which is not characteristic of esophageal adenocarcinoma.</t>
+          <t>Digital ulcers are associated with CREST syndrome due to vascular involvement, not seen in esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Abdominal mass or fullness</t>
+          <t>Cachexia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>An abdominal mass may indicate advanced esophageal adenocarcinoma, which is not a finding in CREST syndrome.</t>
+          <t>Cachexia, or severe weight loss and muscle wasting, is more characteristic of advanced esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barium swallow study showing dilated esophagus with decreased peristalsis</t>
+          <t>Manometry showing incomplete lower esophageal sphincter (LES) relaxation with esophageal body aperistalsis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This finding is characteristic of Type 2 Achalasia, which is often seen in CREST syndrome.</t>
+          <t>This is characteristic of Type 2 Achalasia, which is associated with CREST syndrome.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Endoscopic biopsy showing malignant cells</t>
+          <t>Endoscopic biopsy showing adenocarcinoma</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The presence of malignant cells confirms a diagnosis of esophageal adenocarcinoma.</t>
+          <t>Biopsy confirming adenocarcinoma is definitive for esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Esophageal manometry showing elevated lower esophageal sphincter (LES) pressure</t>
+          <t>Barium swallow showing bird-beak appearance</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Elevated LES pressure is a hallmark of achalasia, supporting the diagnosis of CREST syndrome.</t>
+          <t>The bird-beak appearance is typical of achalasia, particularly in CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Imaging showing mass lesion in the esophagus</t>
+          <t>CT scan showing esophageal mass with lymphadenopathy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A mass lesion is a strong indicator of esophageal adenocarcinoma.</t>
+          <t>An esophageal mass with lymphadenopathy is more indicative of esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Esophageal imaging showing esophageal dilation with a bird-beak appearance</t>
+          <t>Antinuclear antibody (ANA) positivity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The bird-beak appearance is indicative of achalasia, which is associated with CREST syndrome.</t>
+          <t>ANA positivity is common in CREST syndrome, which can be associated with Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Elevated serum tumor markers such as CA 19-9</t>
+          <t>PET scan showing hypermetabolic activity in the esophagus</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Elevated CA 19-9 levels can indicate malignancy, supporting a diagnosis of adenocarcinoma.</t>
+          <t>Hypermetabolic activity on PET scan suggests malignancy, such as esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Presence of anti-centromere antibodies in serology</t>
+          <t>High-resolution manometry showing panesophageal pressurization</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anti-centromere antibodies are commonly associated with CREST syndrome.</t>
+          <t>Panesophageal pressurization is indicative of Type 2 Achalasia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CT scan showing lymphadenopathy in the mediastinum</t>
+          <t>Endoscopic ultrasound showing invasion into surrounding structures</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mediastinal lymphadenopathy is often associated with esophageal adenocarcinoma.</t>
+          <t>Invasion into surrounding structures is more consistent with esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Endoscopic findings showing esophageal mucosal changes consistent with achalasia</t>
+          <t>Esophageal dilation without mucosal irregularity on endoscopy</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mucosal changes in achalasia can be seen in CREST syndrome, differentiating it from adenocarcinoma.</t>
+          <t>Dilation without mucosal irregularity is more typical of achalasia than esophageal adenocarcinoma.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PET scan showing hypermetabolic activity in the esophagus</t>
+          <t>Elevated carcinoembryonic antigen (CEA) levels</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hypermetabolic activity on PET scan is indicative of malignancy, supporting adenocarcinoma.</t>
+          <t>Elevated CEA levels can be associated with esophageal adenocarcinoma.</t>
         </is>
       </c>
     </row>
